--- a/resource_api/raporlar/dosyalar/yeni_musteri_yuklenen.xlsx
+++ b/resource_api/raporlar/dosyalar/yeni_musteri_yuklenen.xlsx
@@ -462,268 +462,322 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mama Abui - Ghana</t>
+          <t>Cosmin Tache - Romania</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45900.17</v>
+        <v>38514.89</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>56750.17</v>
+        <v>39148.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ante Drazic - HR</t>
+          <t>Valerie Alaimo - USA</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>17250.74</v>
+        <v>1355.7</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>17250.74</v>
+        <v>1975.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Franchesta - USA</t>
+          <t>Hamza Boumaza - Algeria</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>31252.8</v>
+        <v>6675.84</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>31252.8</v>
+        <v>8175.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alexander Endrody - Slovakia</t>
+          <t>Bernard Osei - Ghana</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>32020.64</v>
+        <v>106119.55</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>32020.64</v>
+        <v>136819.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bruno Perre - France</t>
+          <t>Thuy Bui - USA</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>85242.62</v>
+        <v>360</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>101443.95</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Oday Mosalam - Germany</t>
+          <t>Amulya - USA</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>14270.65</v>
+        <v>962.9</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>15651.92</v>
+        <v>2162.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kwabena Osei - Ghana</t>
+          <t>Ilka - italy</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>96076.37</v>
+        <v>9003.120000000001</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>100083.72</v>
+        <v>13173.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Seth, TDWL - Ghana</t>
+          <t>Tayyar Yüzgeç - Turkey</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>79758.24000000001</v>
+        <v>33712.37</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>90708.24000000001</v>
+        <v>39038.93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Andrey &amp; Sergey - RU</t>
+          <t>Ian G. Randolph - Ghana</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44003.52</v>
+        <v>14735.46</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44003.52</v>
+        <v>14735.46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rasma Decor - BH</t>
+          <t>Ömer Çerkeş</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>33439.57</v>
+        <v>1506.41</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>39829.57</v>
+        <v>1506.41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Manhal Najjar - Dubai</t>
+          <t>Marteen Rubino - USA</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>650</v>
+        <v>6292.7</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>650</v>
+        <v>14227.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Berchie A. - Ghana</t>
+          <t>John Kwame Boateng - Ghana</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>12000</v>
+        <v>12360</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>12000</v>
+        <v>16030</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gordon - Singapore</t>
+          <t>Kirill Nizovskiy - Dubai</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>83685.28</v>
+        <v>145708.16</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>89480.28</v>
+        <v>144340.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mustek Engineering - Ghana</t>
+          <t>Sherzod Tairov - Kazakhstan</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>17910.11</v>
+        <v>24291</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>21110.11</v>
+        <v>24741</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>David Vickers - Turkey</t>
+          <t>Courtney Adams - USA</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2304</v>
+        <v>400</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>2304</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Guilermo - USA</t>
+          <t>Brent Losey - USA</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>20592</v>
+        <v>4934.97</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>21692</v>
+        <v>7421.79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Amanda O. - Ghana</t>
+          <t>Darius Kazenas - Lithuania</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>32859.26</v>
+        <v>240</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>36059.26</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Paula - USA</t>
+          <t>Emily - Singapore</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1917.68</v>
+        <v>24361.16</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1917.68</v>
+        <v>27311.16</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3" t="n">
-        <v>651133.65</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>714208.6000000001</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Allen, VK - Oman</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>15067.03</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>16467.03</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jacob Tyroller- USA</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1674.6</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>2558.99</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bethany Bristow - USA</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>650</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1150</v>
+      </c>
     </row>
     <row r="23">
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Thomas Gebing - DE</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>6269.1</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>8889.1</v>
+      </c>
     </row>
     <row r="24">
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="2" t="n"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Carl Max - Ghana</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>144780.2</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>163980.2</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Donald Gorski - USA</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>9106.58</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>9106.58</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
+      <c r="B26" s="3" t="n">
+        <v>609081.7399999999</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>694787.3899999998</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="n"/>
